--- a/PLAN DE PRUEBAS - KATA.xlsx
+++ b/PLAN DE PRUEBAS - KATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\BANCO DE BOGOTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\KATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3056A51-774E-4688-A84E-F2B8E4BF4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DA8DB-4740-4A68-AF5C-C6F8A89D5572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B1C382C-1A76-47E3-A298-93669CC6A433}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{3B1C382C-1A76-47E3-A298-93669CC6A433}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTADA" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
   <si>
     <t>Identificador (ID) de la historia</t>
   </si>
@@ -464,9 +464,6 @@
     <t>El usuario accede correctamente a la página principal y puede visualizar y gestionar sus contactos.</t>
   </si>
   <si>
-    <t>UI-03</t>
-  </si>
-  <si>
     <t>Creación de contacto</t>
   </si>
   <si>
@@ -623,16 +620,10 @@
     <t>Repositorio GITHUB</t>
   </si>
   <si>
-    <t>Permitir que los usuarios se registren, inicien sesión y gestionen sus contactos dentro de la aplicación.</t>
-  </si>
-  <si>
     <t>1. Inicio de sesión de usuario</t>
   </si>
   <si>
     <t>2. Registro de usuario</t>
-  </si>
-  <si>
-    <t>3. Creación de contacto</t>
   </si>
   <si>
     <t>Identificador de la épica</t>
@@ -690,15 +681,6 @@
   </si>
   <si>
     <t>Feature: Creación de contacto en Contact List App</t>
-  </si>
-  <si>
-    <t>UI-031</t>
-  </si>
-  <si>
-    <t>UI-032</t>
-  </si>
-  <si>
-    <t>UI-033</t>
   </si>
   <si>
     <t>El usuario se encuentra autenticado en la aplicación
@@ -2088,6 +2070,36 @@
   </si>
   <si>
     <t>El usuario se registra, consulta, actualiza o elimina exitosamente solo cuando todos los campos obligatorios contienen información válida.</t>
+  </si>
+  <si>
+    <t>UI-1</t>
+  </si>
+  <si>
+    <t>Autenticación y gestión de usuarios</t>
+  </si>
+  <si>
+    <t>Permitir que los usuarios creen una cuenta y accedan de forma segura a la aplicación</t>
+  </si>
+  <si>
+    <t>Gestión de contactos</t>
+  </si>
+  <si>
+    <t>Permitir a los usuarios autenticados crear y administrar contactos.</t>
+  </si>
+  <si>
+    <t>1. Creación de contacto</t>
+  </si>
+  <si>
+    <t>UI-13</t>
+  </si>
+  <si>
+    <t>UI-131</t>
+  </si>
+  <si>
+    <t>UI-132</t>
+  </si>
+  <si>
+    <t>UI-133</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2802,6 +2814,72 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2871,78 +2949,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3281,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECE605-76C1-4AB2-B354-EA91F21B5B7F}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3297,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3309,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3325,36 +3349,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="70"/>
+      <c r="B9" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="51"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="72"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="53"/>
     </row>
     <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3372,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F2D25-6E05-4C2F-929B-656C7BA803D0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3387,55 +3411,78 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
     </row>
     <row r="3" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>75</v>
+      <c r="A4" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="25" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3446,7 +3493,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,109 +3529,111 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="62" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="62" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="62" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="C6" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="D6" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="E6" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="F6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
@@ -3601,8 +3650,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3612,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09004E1-5E7C-4616-B840-6295F73581C4}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3644,148 +3691,148 @@
         <v>9</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
     </row>
     <row r="4" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>83</v>
-      </c>
       <c r="G4" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>84</v>
-      </c>
       <c r="G5" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="162.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="38" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>18</v>
@@ -3797,16 +3844,16 @@
         <v>27</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>19</v>
@@ -3818,16 +3865,16 @@
         <v>28</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>19</v>
@@ -3839,16 +3886,16 @@
         <v>28</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>19</v>
@@ -3860,16 +3907,16 @@
         <v>28</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="38" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>19</v>
@@ -3881,16 +3928,16 @@
         <v>28</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>19</v>
@@ -3902,16 +3949,16 @@
         <v>28</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>19</v>
@@ -3923,83 +3970,83 @@
         <v>28</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>55</v>
+      <c r="A17" s="66" t="s">
+        <v>160</v>
       </c>
       <c r="B17" s="41"/>
       <c r="C17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+    </row>
+    <row r="18" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="34" t="s">
+      <c r="F19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="68"/>
+      <c r="B20" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="36" t="s">
+      <c r="F20" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>95</v>
-      </c>
       <c r="G20" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +4069,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4032,7 +4079,7 @@
     <col min="7" max="7" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4056,52 +4103,52 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>156</v>
+      <c r="C2" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="86"/>
+        <v>152</v>
+      </c>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4111,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D8AC6-3EE9-4A04-B4B8-932D29F15A54}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4121,225 +4168,227 @@
     <col min="3" max="3" width="52.5546875" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="38.88671875" style="91" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="45" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="88" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90" t="s">
+      <c r="G1" s="94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="89"/>
+      <c r="B7" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="89"/>
+      <c r="B8" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="89"/>
+      <c r="B9" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-    </row>
-    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D9" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="89"/>
+      <c r="B10" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" s="91" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="91" t="s">
+      <c r="D11" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>112</v>
+      <c r="G11" s="93" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
